--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1868101.126265542</v>
+        <v>-1870737.495919017</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>271.3120183669821</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>308.6115940416502</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>211.7238599265979</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.71755718446796</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -826,16 +826,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>94.25842888134937</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>295.4063084024568</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>159.0052957619192</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>206.1900789192695</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>60.95204631385878</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,13 +1139,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>93.11298522381107</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.426078110004423</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>39.61269521953754</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>150.2062474346973</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634776</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>156.5238857906927</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>117.6579322793559</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520965</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>245.8796921214428</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>87.61360486368905</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>20.9284728855285</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,13 +2059,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>64.40601307691354</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>1.799772605716112</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>74.41917683133136</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>211.5194646822736</v>
       </c>
     </row>
     <row r="26">
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545305</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065892</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
         <v>124.3308255261726</v>
@@ -2959,16 +2959,16 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.136400530892</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="35">
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352485</v>
@@ -3955,16 +3955,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="44">
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1045.063224651176</v>
+        <v>1502.660066001256</v>
       </c>
       <c r="C2" t="n">
-        <v>1045.063224651176</v>
+        <v>1502.660066001256</v>
       </c>
       <c r="D2" t="n">
-        <v>771.0106808461439</v>
+        <v>1144.394367394506</v>
       </c>
       <c r="E2" t="n">
-        <v>771.0106808461439</v>
+        <v>1144.394367394506</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>733.4084626048982</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2139.731202231639</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>1808.668314888068</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W2" t="n">
-        <v>1808.668314888068</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X2" t="n">
-        <v>1435.202556626988</v>
+        <v>1502.660066001256</v>
       </c>
       <c r="Y2" t="n">
-        <v>1045.063224651176</v>
+        <v>1502.660066001256</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4401,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.2127024906389</v>
+        <v>1792.061539208398</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2765195627319</v>
+        <v>1623.125356280491</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>1473.008716868155</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>1325.095623285762</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>1178.205675787852</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>1178.205675787852</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>1082.995141564267</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>1002.609167878779</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.98193257148</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324692</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485136</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426267</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="W4" t="n">
-        <v>570.4526592426267</v>
+        <v>1973.710004038638</v>
       </c>
       <c r="X4" t="n">
-        <v>570.4526592426267</v>
+        <v>1973.710004038638</v>
       </c>
       <c r="Y4" t="n">
-        <v>570.4526592426267</v>
+        <v>1973.710004038638</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1934.208022973022</v>
+        <v>1151.298377994912</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>782.3358610545008</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520488</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2710.947195012955</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>2320.807863037144</v>
+        <v>1537.898218059034</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>216.6287558445192</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C7" t="n">
-        <v>216.6287558445192</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4756,19 +4756,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1305.569241495684</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046018</v>
+        <v>1050.884753289797</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676413</v>
+        <v>761.4675832528364</v>
       </c>
       <c r="X7" t="n">
-        <v>619.069799818289</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="Y7" t="n">
-        <v>398.2772206747588</v>
+        <v>533.4780323548191</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1638.360256348809</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1269.397739408397</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>911.132040801647</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>911.132040801647</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>500.1461360120394</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,7 +4802,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3324.165338669773</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3324.165338669773</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>3070.634861943609</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649822</v>
+        <v>3070.634861943609</v>
       </c>
       <c r="W8" t="n">
-        <v>2788.565186649822</v>
+        <v>2717.866206673495</v>
       </c>
       <c r="X8" t="n">
-        <v>2415.099428388743</v>
+        <v>2717.866206673495</v>
       </c>
       <c r="Y8" t="n">
-        <v>2024.960096412931</v>
+        <v>2327.726874697683</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,19 +4884,19 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="D10" t="n">
         <v>772.5608581015648</v>
@@ -4993,19 +4993,19 @@
         <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1494.054724415577</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1494.054724415577</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>1494.054724415577</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>812.5736815556431</v>
       </c>
     </row>
     <row r="11">
@@ -5021,70 +5021,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="12">
@@ -5106,22 +5106,22 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>577.8620388433919</v>
+        <v>1089.57599612052</v>
       </c>
       <c r="C13" t="n">
-        <v>408.925855915485</v>
+        <v>920.6398131926132</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>770.5231737802775</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>622.6100801978844</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>475.720132699974</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782857</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038243</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797645</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910799</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570807</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279792</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853351</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.96308358025</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358025</v>
       </c>
       <c r="S13" t="n">
-        <v>2261.070983590889</v>
+        <v>2264.108249235155</v>
       </c>
       <c r="T13" t="n">
-        <v>2041.469518613831</v>
+        <v>2264.108249235155</v>
       </c>
       <c r="U13" t="n">
-        <v>1752.394291958028</v>
+        <v>2264.108249235155</v>
       </c>
       <c r="V13" t="n">
-        <v>1497.709803752141</v>
+        <v>2009.423761029268</v>
       </c>
       <c r="W13" t="n">
-        <v>1208.292633715181</v>
+        <v>1720.006590992307</v>
       </c>
       <c r="X13" t="n">
-        <v>980.3030828171635</v>
+        <v>1492.01704009429</v>
       </c>
       <c r="Y13" t="n">
-        <v>759.5105036736317</v>
+        <v>1271.22446095076</v>
       </c>
     </row>
     <row r="14">
@@ -5267,34 +5267,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5355,7 +5355,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
@@ -5364,10 +5364,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1231.938859683105</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
         <v>631.7012443408906</v>
@@ -5425,7 +5425,7 @@
         <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1729.097755135313</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1412.248478625014</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="17">
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>931.4710609784064</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>762.5348780504995</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474262</v>
+        <v>612.4182386381638</v>
       </c>
       <c r="E19" t="n">
-        <v>261.8464821474262</v>
+        <v>464.5051450557706</v>
       </c>
       <c r="F19" t="n">
-        <v>114.9565346495158</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G19" t="n">
-        <v>114.9565346495158</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H19" t="n">
-        <v>114.9565346495158</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1623.329274989137</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5741,58 +5741,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.290194822295</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.605706616408</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.188536579448</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.19898568143</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="23">
@@ -5984,10 +5984,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319314</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656808</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150031</v>
+        <v>656.9646031150014</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942646</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580106</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380722</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311316</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O28" t="n">
         <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931272</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.38532953243</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="29">
@@ -6458,7 +6458,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6619,7 +6619,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
         <v>483.825546038073</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6740,7 +6740,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656815</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,49 +6856,49 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380735</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231133</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954152</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,7 +7169,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7178,16 +7178,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7336,7 +7336,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,19 +7345,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,7 +7406,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7497,10 +7497,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150021</v>
@@ -7555,25 +7555,25 @@
         <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7606,7 +7606,7 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
         <v>1280.338681582389</v>
@@ -7643,10 +7643,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319314</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656808</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150014</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942647</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380723</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>168.7434581780648</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111053</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>325.9515015691401</v>
       </c>
       <c r="D2" t="n">
-        <v>83.37102325370087</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>102.9361087313038</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>9.000252501576142</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>63.36835372228872</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>40.30478226780133</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>198.909393472902</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>60.33736343303703</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>187.7316302469144</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>211.7652975579128</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>45.44677382459309</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>7.065188669821197</v>
       </c>
     </row>
     <row r="26">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.507386935653488e-13</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81152.27790359156</v>
+        <v>81152.27790359162</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26335,7 +26335,7 @@
         <v>100893.3249612508</v>
       </c>
       <c r="J2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="K2" t="n">
         <v>102630.2212330356</v>
@@ -26347,7 +26347,7 @@
         <v>102630.2212330354</v>
       </c>
       <c r="N2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="O2" t="n">
         <v>102630.2212330355</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.741612106</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.954454091901425e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>187032.8958036143</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605451</v>
+        <v>49110.09270605442</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551177</v>
+        <v>85055.02793551164</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.670698566158535e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363184</v>
+        <v>19427.71799363181</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39859.18718029541</v>
+        <v>39859.18718029553</v>
       </c>
       <c r="C4" t="n">
+        <v>89134.17909312021</v>
+      </c>
+      <c r="D4" t="n">
         <v>89134.17909312018</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89134.17909312015</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
+        <v>9947.144321768897</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9947.14432176891</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9947.144321768897</v>
+      </c>
+      <c r="I4" t="n">
         <v>9947.144321768912</v>
       </c>
-      <c r="G4" t="n">
-        <v>9947.144321768897</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9947.144321768859</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9947.144321768897</v>
-      </c>
       <c r="J4" t="n">
-        <v>17938.00358486244</v>
+        <v>17938.00358486237</v>
       </c>
       <c r="K4" t="n">
+        <v>17938.00358486237</v>
+      </c>
+      <c r="L4" t="n">
         <v>17938.00358486239</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>17938.00358486236</v>
+      </c>
+      <c r="N4" t="n">
         <v>17938.00358486238</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>17938.00358486237</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>17938.00358486237</v>
-      </c>
-      <c r="O4" t="n">
-        <v>17938.00358486238</v>
-      </c>
-      <c r="P4" t="n">
-        <v>17938.00358486236</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1166396.465292468</v>
+        <v>-1166826.024159057</v>
       </c>
       <c r="C6" t="n">
-        <v>-297876.640033584</v>
+        <v>-297876.6400335839</v>
       </c>
       <c r="D6" t="n">
-        <v>-94437.89842147806</v>
+        <v>-94437.89842147812</v>
       </c>
       <c r="E6" t="n">
-        <v>-335588.8109917804</v>
+        <v>-335623.5489172157</v>
       </c>
       <c r="F6" t="n">
-        <v>-10176.34918442523</v>
+        <v>-10211.08710986107</v>
       </c>
       <c r="G6" t="n">
-        <v>-10176.34918442524</v>
+        <v>-10211.08710986091</v>
       </c>
       <c r="H6" t="n">
-        <v>-10176.34918442524</v>
+        <v>-10211.08710986095</v>
       </c>
       <c r="I6" t="n">
-        <v>-10176.34918442524</v>
+        <v>-10211.08710986094</v>
       </c>
       <c r="J6" t="n">
-        <v>-205504.7940093565</v>
+        <v>-205504.7940093566</v>
       </c>
       <c r="K6" t="n">
-        <v>-67581.99091179675</v>
+        <v>-67581.99091179657</v>
       </c>
       <c r="L6" t="n">
-        <v>-18471.89820574231</v>
+        <v>-18471.89820574233</v>
       </c>
       <c r="M6" t="n">
-        <v>-103526.9261412541</v>
+        <v>-103526.926141254</v>
       </c>
       <c r="N6" t="n">
-        <v>-18471.89820574233</v>
+        <v>-18471.89820574247</v>
       </c>
       <c r="O6" t="n">
-        <v>-37899.61619937417</v>
+        <v>-37899.61619937411</v>
       </c>
       <c r="P6" t="n">
         <v>-18471.8982057423</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203975</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
@@ -26805,7 +26805,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920398</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>190.8166233022538</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973549</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973549</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>190.8166233022538</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973549</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>39.32139020186742</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>39.32139020186415</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128.1144229974693</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>52.99308027377947</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,16 +27588,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>74.3247922760122</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>227.2326428941344</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27828,7 +27828,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>80.02175928634335</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>164.7576090751784</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,13 +27859,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>317.8087404296424</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>107.7616836781714</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>109.0027777986748</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28065,19 +28065,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>136.0055907709156</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>3.012701199622825e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-7.709020622584651e-12</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-9.649369182721891e-15</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="29">
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>302.967544750805</v>
+        <v>302.9675447508056</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>302.967544750805</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817591</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32312,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328829</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>697.0074482175627</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,19 +32783,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647499</v>
+        <v>595.3857163736981</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33509,13 +33509,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33670,10 +33670,10 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33968,19 +33968,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,7 +33989,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34217,13 +34217,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,13 +34363,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,13 +34454,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>535.6747904601052</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>160.8335108287866</v>
+        <v>160.8335108287873</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326294334</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>160.8335108287866</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367786</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>191.3582339884385</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>565.6657361342294</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>477.9853321427316</v>
+        <v>453.2516824516798</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,10 +36452,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,13 +36680,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
         <v>397.5465471980852</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37157,13 +37157,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37318,10 +37318,10 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,19 +37616,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,7 +37637,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37865,13 +37865,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,13 +38102,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
